--- a/hazmanatMekomotEmpty.xlsx
+++ b/hazmanatMekomotEmpty.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="11">
   <si>
     <t>משפחה</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -113,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -167,6 +173,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,10 +530,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O143"/>
+  <dimension ref="A1:R143"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -547,7 +556,7 @@
     <col min="16" max="16" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -564,7 +573,7 @@
       <c r="N1" s="18"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -581,12 +590,15 @@
       <c r="N2" s="18"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="11"/>
       <c r="J3" s="11"/>
+      <c r="N3" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="O3" s="11"/>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -599,12 +611,12 @@
       <c r="J4" s="11"/>
       <c r="O4" s="11"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E5" s="11"/>
       <c r="J5" s="11"/>
       <c r="O5" s="11"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
@@ -623,7 +635,7 @@
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
     </row>
-    <row r="7" spans="1:15" s="13" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" s="13" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -640,7 +652,7 @@
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
     </row>
-    <row r="8" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -656,8 +668,11 @@
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
-    </row>
-    <row r="9" spans="1:15" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q8" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="19" t="s">
         <v>1</v>
@@ -686,7 +701,7 @@
       </c>
       <c r="O9" s="21"/>
     </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
@@ -733,7 +748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
@@ -779,8 +794,11 @@
       <c r="O12" s="15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R12" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>7</v>
       </c>
@@ -827,7 +845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
@@ -874,7 +892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
@@ -921,7 +939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
